--- a/工作计划/单周计划2018-06-04.xlsx
+++ b/工作计划/单周计划2018-06-04.xlsx
@@ -38,35 +38,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王远斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单周工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 区域价格功能，bug解决！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 优惠策略不执行的bug解决！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 报警工单系统的建立及流程处理；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 优惠策略不执行的bug解决！(如有需要，配合调查)</t>
+    <t>1. 对订单已开发票进行标注；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 卢坤测试的23个问题，修改闭环！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 报警工单系统的建立及流程处理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018\6\4开始（本周四下班前完成，版本提交！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 小程序用户体验优化！（周源帮忙解决日期控件问题，按时间进度调整，可选！）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,39 +88,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王远斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 系统用户，登录bug解决!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 报警工单系统的建立及流程处理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 优惠策略不执行的bug解决！(如有需要，配合调查)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 优惠策略不执行的bug解决！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 区域价格功能，bug解决！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6. 报修工单打印！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 系统用户，登录bug解决!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 小程序用户体验优化！（周源帮忙解决日期控件问题，按时间进度调整，可选！）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 对订单已开发票进行标注；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 卢坤测试的23个问题，修改闭环！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 报警工单系统的建立及流程处理；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,13 +215,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,13 +526,13 @@
   <dimension ref="B1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B56"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.36328125" customWidth="1"/>
-    <col min="2" max="2" width="104.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="79.453125" customWidth="1"/>
     <col min="4" max="4" width="31.453125" customWidth="1"/>
     <col min="5" max="5" width="18.26953125" style="1" customWidth="1"/>
@@ -541,7 +541,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="27.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -550,11 +550,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -562,210 +562,209 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>5</v>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
+      <c r="B18" s="12"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>6</v>
+      <c r="B21" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="12"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
+      <c r="B26" s="12"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
+      <c r="B35" s="12"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
+      <c r="B44" s="12"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
+      <c r="B45" s="12"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
+      <c r="B46" s="12"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
+      <c r="B47" s="12"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
@@ -784,12 +783,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B39:B48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
